--- a/data/trans_dic/P16A13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,49; 3,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,97; 3,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,23; 2,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,25; 2,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,56; 2,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,53; 2,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,37; 2,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,02; 2,49</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,86; 2,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,24; 3,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,84; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,35; 2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,48; 2,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,99; 3,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,81; 2,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,41; 2,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,85; 2,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,33; 3,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,0; 2,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,65; 2,34</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,36; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,54; 4,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,02; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,83; 3,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,01; 3,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,95; 4,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,82; 2,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,85; 4,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,39; 2,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,02; 4,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,09; 2,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,69; 3,3</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,39; 4,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,52; 7,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,24; 3,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,79; 7,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,58; 6,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,32; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,94; 3,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,5; 6,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,28; 4,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,39; 7,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,34; 3,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,0; 6,33</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>2,33; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>1,95; 5,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>3,24; 7,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,46; 10,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>3,78; 8,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,16; 10,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,59; 10,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,5; 12,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,46; 6,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,95; 7,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,07; 8,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,78; 10,59</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,42%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,85; 7,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>7,48; 13,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,33; 8,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,44; 17,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,28; 9,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,67; 13,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,68; 11,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,53; 21,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,2; 8,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>8,88; 12,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,25; 9,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,48; 19,17</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,36%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,4; 4,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,42; 3,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,63; 7,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,02; 4,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,67; 6,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,36; 4,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,2; 8,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,74; 3,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,23; 5,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,07; 3,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,72; 7,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 7,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,49</t>
+          <t>0,05; 4,08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,99</t>
+          <t>0,35; 2,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,61</t>
+          <t>0,32; 2,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,34</t>
+          <t>0,61; 2,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,2</t>
+          <t>0,83; 3,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,25</t>
+          <t>1,91; 4,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,3</t>
+          <t>1,72; 3,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 7,6</t>
+          <t>1,74; 6,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,0</t>
+          <t>3,31; 5,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,33</t>
+          <t>2,46; 5,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,6</t>
+          <t>6,51; 10,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,5; 12,05</t>
+          <t>8,59; 12,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,59</t>
+          <t>7,82; 10,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>11,01%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>10,89%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,56%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,68</t>
+          <t>2,39; 7,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,11</t>
+          <t>4,51; 11,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,04</t>
+          <t>2,95; 7,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,44; 17,8</t>
+          <t>9,85; 15,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,34</t>
+          <t>5,02; 10,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,47</t>
+          <t>8,04; 14,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,44</t>
+          <t>4,07; 9,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,53; 21,74</t>
+          <t>3,58; 15,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,09</t>
+          <t>4,36; 7,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 12,41</t>
+          <t>7,05; 11,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,25; 9,25</t>
+          <t>4,15; 7,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,17</t>
+          <t>4,96; 14,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>24,13%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,69; 11,39</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8,56; 17,45</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 10,52</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 23,47</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 10,15</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 14,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 15,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 29,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 9,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 14,46</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 11,94</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,72; 26,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,14; 3,24</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,4; 4,85</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,42; 3,64</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,63; 7,35</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 7,0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>3,02; 4,23</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,67; 6,22</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,36; 4,83</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 8,9</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 8,68</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>2,74; 3,6</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>4,23; 5,29</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>3,07; 3,99</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 7,93</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 7,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A13-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,28</t>
+          <t>0,5; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,45</t>
+          <t>0,0; 6,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,39</t>
+          <t>0,98; 3,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,25</t>
+          <t>0,22; 2,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,78</t>
+          <t>0,43; 3,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,04</t>
+          <t>0,58; 2,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,13</t>
+          <t>0,54; 2,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,12</t>
+          <t>0,37; 2,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 4,08</t>
+          <t>0,05; 6,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,74</t>
+          <t>0,85; 2,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,76</t>
+          <t>1,24; 3,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,14</t>
+          <t>0,83; 3,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,95</t>
+          <t>0,37; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,31</t>
+          <t>0,47; 2,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,59</t>
+          <t>1,03; 3,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,93</t>
+          <t>0,81; 2,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,47</t>
+          <t>0,41; 2,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,14</t>
+          <t>0,88; 2,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,04</t>
+          <t>1,43; 3,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,55</t>
+          <t>0,96; 2,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,23</t>
+          <t>0,56; 2,1</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,85</t>
+          <t>1,34; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,35</t>
+          <t>1,55; 4,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,2</t>
+          <t>0,95; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,24</t>
+          <t>0,82; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,23</t>
+          <t>1,02; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,85</t>
+          <t>2,02; 4,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,86</t>
+          <t>0,8; 3,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,35</t>
+          <t>1,94; 4,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,96</t>
+          <t>1,37; 3,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,03</t>
+          <t>2,06; 3,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,6</t>
+          <t>1,11; 2,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,32</t>
+          <t>1,66; 3,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,48</t>
+          <t>1,47; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,27</t>
+          <t>3,48; 7,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,73</t>
+          <t>1,25; 3,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,73</t>
+          <t>1,79; 6,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,03</t>
+          <t>2,63; 6,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,49</t>
+          <t>4,39; 8,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,17</t>
+          <t>0,96; 3,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,85</t>
+          <t>3,33; 6,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,65</t>
+          <t>2,38; 4,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,32</t>
+          <t>4,24; 7,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,05</t>
+          <t>1,34; 2,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,71</t>
+          <t>2,47; 5,7</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,13</t>
+          <t>2,29; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,71</t>
+          <t>1,92; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,97</t>
+          <t>3,32; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,66</t>
+          <t>6,31; 10,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 8,7</t>
+          <t>3,81; 8,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,36</t>
+          <t>5,02; 10,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,65</t>
+          <t>5,85; 11,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,14</t>
+          <t>8,54; 12,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,47</t>
+          <t>3,65; 6,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,19</t>
+          <t>4,04; 7,16</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,42</t>
+          <t>5,05; 8,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,66</t>
+          <t>7,99; 10,9</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 7,35</t>
+          <t>2,12; 7,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,76</t>
+          <t>4,36; 11,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,62</t>
+          <t>3,02; 8,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,2</t>
+          <t>9,9; 15,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,46</t>
+          <t>5,18; 10,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,04; 14,37</t>
+          <t>7,92; 14,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,21</t>
+          <t>4,2; 9,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,91</t>
+          <t>3,94; 16,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,98</t>
+          <t>4,4; 7,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,85</t>
+          <t>7,19; 11,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,82</t>
+          <t>4,12; 7,58</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,96; 14,3</t>
+          <t>5,84; 14,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,39</t>
+          <t>4,66; 12,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,45</t>
+          <t>9,03; 18,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,52</t>
+          <t>4,59; 10,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,47</t>
+          <t>16,57; 23,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,15</t>
+          <t>4,43; 10,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,19</t>
+          <t>8,01; 14,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,07</t>
+          <t>7,53; 14,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,33; 29,98</t>
+          <t>24,16; 30,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,61</t>
+          <t>5,13; 9,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,46</t>
+          <t>9,01; 14,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,94</t>
+          <t>6,95; 12,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>21,72; 26,41</t>
+          <t>22,05; 26,69</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,24</t>
+          <t>2,16; 3,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,85</t>
+          <t>3,34; 4,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,64</t>
+          <t>2,39; 3,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,68; 7,0</t>
+          <t>4,74; 6,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 4,23</t>
+          <t>3,02; 4,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,22</t>
+          <t>4,62; 6,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 4,83</t>
+          <t>3,38; 4,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,68</t>
+          <t>6,32; 8,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,6</t>
+          <t>2,69; 3,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,29</t>
+          <t>4,24; 5,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 3,99</t>
+          <t>3,08; 3,98</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,61</t>
+          <t>6,05; 7,63</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2458</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8479</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10937</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10447</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7638</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7584</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2255; 14222</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10473</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24404</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4596; 16813</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>966; 8794</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1707; 12120</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9014</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5570; 20310</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4749; 18685</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2998; 16842</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>352; 44624</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15157</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10023</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7153</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12447</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9138</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5601</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19220</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27604</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19160</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6271; 20543</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8512; 24379</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4917; 18809</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1567; 12036</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2934; 14165</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6274; 21656</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4554; 16723</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2119; 13021</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11985; 29172</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18575; 41266</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11108; 29644</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5217; 19628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17698</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12771</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22147</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10836</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15879</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27828</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39845</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>23075</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25841</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8572; 24496</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10534; 29805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6382; 21627</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4380; 18625</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7004; 20448</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14229; 33942</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5306; 20025</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10504; 22681</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18134; 40071</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28510; 54816</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14760; 35511</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17862; 35472</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13514</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31739</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14162</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38700</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20904</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37718</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11824</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>32138</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>34418</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>69457</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25986</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>70838</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7632; 22922</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>21415; 47026</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8058; 24364</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15868; 59233</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13553; 31344</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26929; 54066</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6215; 22666</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23749; 42963</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24588; 47492</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52083; 88257</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17374; 38204</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>39559; 91209</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15035</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14673</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>25065</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46698</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>23317</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33268</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39482</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55652</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38352</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47941</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>64546</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>102350</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8846; 23207</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8209; 24130</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15879; 38444</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35339; 60236</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15393; 34700</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22486; 46035</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29065; 54665</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>46543; 66684</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28856; 53136</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35424; 62745</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49189; 83769</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>88291; 120497</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12486</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22402</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17101</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44897</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>25619</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38965</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24059</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61425</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>38105</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>61367</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>41160</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>106322</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6201; 20727</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13283; 34233</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10087; 26973</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36445; 55508</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>17750; 35740</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28027; 51427</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15864; 34422</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23949; 97618</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>27943; 50285</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>47311; 78212</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29330; 53994</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>57027; 140068</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15980</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>32029</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>18239</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>56517</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>23227</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>41668</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>43702</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>114184</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>39207</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>73697</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>61941</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>170701</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9781; 25546</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>22482; 45593</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>11806; 27768</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>46858; 67454</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14778; 34459</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30989; 57591</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30135; 58203</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>102606; 127847</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>27884; 52739</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>57299; 93809</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>45679; 80792</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>156012; 188833</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>86595</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>140263</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>99770</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>208125</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>121472</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>190095</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>143737</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>286511</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>208067</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>330359</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>243507</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>494636</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>70617; 108614</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>114170; 166447</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>81052; 122688</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>164059; 241010</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>101921; 142388</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>163853; 220822</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>119777; 171144</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>231207; 317937</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>178837; 234861</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>295469; 369878</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>213981; 276229</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>430868; 543050</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>